--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.104</v>
+        <v>-21.933</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.596</v>
+        <v>-8.349</v>
       </c>
     </row>
     <row r="19">
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.9</v>
+        <v>-20.645</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.628</v>
+        <v>-20.808</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.784</v>
+        <v>5.342</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.748</v>
+        <v>-21.589</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.586</v>
+        <v>5.468000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.366</v>
+        <v>7.363</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.654000000000001</v>
+        <v>5.647</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.62</v>
+        <v>5.609</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.994</v>
+        <v>6.237</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.48</v>
+        <v>-8.231</v>
       </c>
     </row>
     <row r="52">
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.286</v>
+        <v>5.968000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-20.274</v>
+        <v>-20.335</v>
       </c>
       <c r="B53" t="n">
-        <v>7.08</v>
+        <v>8.151</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.136</v>
+        <v>4.886</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.66</v>
+        <v>-8.349</v>
       </c>
     </row>
     <row r="56">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.512</v>
+        <v>-22.291</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.452</v>
+        <v>-22.401</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.618</v>
+        <v>-7.407000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.652</v>
+        <v>-21.441</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.932</v>
+        <v>5.052999999999999</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.486</v>
+        <v>-21.305</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.942</v>
+        <v>-8.166</v>
       </c>
     </row>
     <row r="81">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.938</v>
+        <v>-21.976</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.046</v>
+        <v>5.197</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.708</v>
+        <v>4.718</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1726,12 +1726,12 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.355000000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.398</v>
+        <v>-21.533</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.548</v>
+        <v>-7.703999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.23</v>
+        <v>-7.738999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.456</v>
+        <v>5.217000000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
